--- a/BI/data/home_win_rate_vs_possession.xlsx
+++ b/BI/data/home_win_rate_vs_possession.xlsx
@@ -475,19 +475,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F2" t="n">
         <v>17.5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2964528103065272</v>
+        <v>0.2829495398496936</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +512,7 @@
         <v>22.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3192293078790261</v>
+        <v>0.306770073805826</v>
       </c>
     </row>
     <row r="4">
@@ -537,7 +537,7 @@
         <v>27.5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.342005805451525</v>
+        <v>0.3305906077619585</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>32.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3647823030240239</v>
+        <v>0.354411141718091</v>
       </c>
     </row>
     <row r="6">
@@ -587,7 +587,7 @@
         <v>37.5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3875588005965228</v>
+        <v>0.3782316756742234</v>
       </c>
     </row>
     <row r="7">
@@ -612,7 +612,7 @@
         <v>42.5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4103352981690217</v>
+        <v>0.4020522096303559</v>
       </c>
     </row>
     <row r="8">
@@ -637,7 +637,7 @@
         <v>47.5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4331117957415206</v>
+        <v>0.4258727435864884</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>52.5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4558882933140195</v>
+        <v>0.4496932775426208</v>
       </c>
     </row>
     <row r="10">
@@ -675,19 +675,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D10" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4390992835209826</v>
+        <v>0.4402451481103167</v>
       </c>
       <c r="F10" t="n">
         <v>57.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4786647908865184</v>
+        <v>0.4735138114987533</v>
       </c>
     </row>
     <row r="11">
@@ -700,19 +700,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D11" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5057915057915058</v>
+        <v>0.5070603337612324</v>
       </c>
       <c r="F11" t="n">
         <v>62.5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5014412884590174</v>
+        <v>0.4973343454548858</v>
       </c>
     </row>
     <row r="12">
@@ -737,7 +737,7 @@
         <v>67.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5242177860315163</v>
+        <v>0.5211548794110182</v>
       </c>
     </row>
     <row r="13">
@@ -750,19 +750,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D13" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5708333333333333</v>
+        <v>0.5743801652892562</v>
       </c>
       <c r="F13" t="n">
         <v>72.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5469942836040151</v>
+        <v>0.5449754133671507</v>
       </c>
     </row>
     <row r="14">
@@ -787,7 +787,7 @@
         <v>77.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0.569770781176514</v>
+        <v>0.5687959473232832</v>
       </c>
     </row>
     <row r="15">
@@ -800,19 +800,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="n">
         <v>82.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5925472787490129</v>
+        <v>0.5926164812794156</v>
       </c>
     </row>
   </sheetData>
